--- a/add-info-dmp/ig/ValueSet-MeltingPotVS.xlsx
+++ b/add-info-dmp/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T06:46:04+00:00</t>
+    <t>2025-04-29T10:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/ValueSet-MeltingPotVS.xlsx
+++ b/add-info-dmp/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T10:10:29+00:00</t>
+    <t>2025-04-29T10:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
